--- a/Raw/ATPaptACmm + ads8-14.xlsx
+++ b/Raw/ATPaptACmm + ads8-14.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gpvru\py_repo\melt_curve_proc\Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CC3420-2F3D-443E-BF3D-FD4C63C6FEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C57A34-0F8E-42DD-94B1-8601C1F71918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="7" xr2:uid="{2411BB9F-68E3-41F9-ADBE-6CB4F2ECFFD0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{2411BB9F-68E3-41F9-ADBE-6CB4F2ECFFD0}"/>
   </bookViews>
   <sheets>
     <sheet name="pH 5.0" sheetId="1" r:id="rId1"/>
@@ -67,10 +67,10 @@
     <t>T</t>
   </si>
   <si>
-    <t xml:space="preserve">T interval </t>
+    <t>None</t>
   </si>
   <si>
-    <t>None</t>
+    <t xml:space="preserve">Info </t>
   </si>
 </sst>
 </file>
@@ -432,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693AB9AB-D3CE-4AFC-8F8E-300985A3891E}">
   <dimension ref="A1:P302"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:P3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,35 +464,35 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" t="str">
         <f>CONCATENATE($I1,B1)</f>
-        <v>T interval ads8</v>
+        <v>Info ads8</v>
       </c>
       <c r="K1" t="str">
-        <f t="shared" ref="K1:Q1" si="0">CONCATENATE($I1,C1)</f>
-        <v>T interval ads9</v>
+        <f t="shared" ref="K1:P1" si="0">CONCATENATE($I1,C1)</f>
+        <v>Info ads9</v>
       </c>
       <c r="L1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads10</v>
+        <v>Info ads10</v>
       </c>
       <c r="M1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads11</v>
+        <v>Info ads11</v>
       </c>
       <c r="N1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads12</v>
+        <v>Info ads12</v>
       </c>
       <c r="O1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads13</v>
+        <v>Info ads13</v>
       </c>
       <c r="P1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads14</v>
+        <v>Info ads14</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -521,16 +521,16 @@
         <v>230157.484375</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N2">
         <v>9</v>
@@ -604,6 +604,27 @@
       <c r="H4">
         <v>226674.5</v>
       </c>
+      <c r="J4">
+        <v>-3.2149999999999998E-2</v>
+      </c>
+      <c r="K4">
+        <v>-3.2149999999999998E-2</v>
+      </c>
+      <c r="L4">
+        <v>-3.2149999999999998E-2</v>
+      </c>
+      <c r="M4">
+        <v>-3.2149999999999998E-2</v>
+      </c>
+      <c r="N4">
+        <v>-3.2149999999999998E-2</v>
+      </c>
+      <c r="O4">
+        <v>-3.2149999999999998E-2</v>
+      </c>
+      <c r="P4">
+        <v>-3.2149999999999998E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -631,6 +652,27 @@
       <c r="H5">
         <v>225297.5625</v>
       </c>
+      <c r="J5">
+        <v>-3.0943975928382401E-2</v>
+      </c>
+      <c r="K5">
+        <v>-3.08723465900042E-2</v>
+      </c>
+      <c r="L5">
+        <v>-3.3977519779496097E-2</v>
+      </c>
+      <c r="M5">
+        <v>-3.1004959574489E-2</v>
+      </c>
+      <c r="N5">
+        <v>-3.1753210884482901E-2</v>
+      </c>
+      <c r="O5">
+        <v>-3.1000263870840299E-2</v>
+      </c>
+      <c r="P5">
+        <v>-3.3170128316657603E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -658,6 +700,27 @@
       <c r="H6">
         <v>224323.828125</v>
       </c>
+      <c r="J6">
+        <v>12.9592930536203</v>
+      </c>
+      <c r="K6">
+        <v>12.9592930536203</v>
+      </c>
+      <c r="L6">
+        <v>12.9592930536203</v>
+      </c>
+      <c r="M6">
+        <v>12.9592930536203</v>
+      </c>
+      <c r="N6">
+        <v>12.9592930536203</v>
+      </c>
+      <c r="O6">
+        <v>12.9592930536203</v>
+      </c>
+      <c r="P6">
+        <v>12.9592930536203</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -684,6 +747,27 @@
       </c>
       <c r="H7">
         <v>222923.21875</v>
+      </c>
+      <c r="J7">
+        <v>12.9742041310238</v>
+      </c>
+      <c r="K7">
+        <v>12.758663557173801</v>
+      </c>
+      <c r="L7">
+        <v>13.176062591012199</v>
+      </c>
+      <c r="M7">
+        <v>12.8210282327555</v>
+      </c>
+      <c r="N7">
+        <v>12.820139991741099</v>
+      </c>
+      <c r="O7">
+        <v>13.071840761709399</v>
+      </c>
+      <c r="P7">
+        <v>12.9450209077973</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -9222,8 +9306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18D9EF5-9A20-42A0-AF8C-F2C3AC1DC2E8}">
   <dimension ref="A1:P302"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P3" sqref="I1:P3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9254,35 +9338,35 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" t="str">
         <f>CONCATENATE($I1,B1)</f>
-        <v>T interval ads8</v>
+        <v>Info ads8</v>
       </c>
       <c r="K1" t="str">
         <f t="shared" ref="K1:P1" si="0">CONCATENATE($I1,C1)</f>
-        <v>T interval ads9</v>
+        <v>Info ads9</v>
       </c>
       <c r="L1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads10</v>
+        <v>Info ads10</v>
       </c>
       <c r="M1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads11</v>
+        <v>Info ads11</v>
       </c>
       <c r="N1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads12</v>
+        <v>Info ads12</v>
       </c>
       <c r="O1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads13</v>
+        <v>Info ads13</v>
       </c>
       <c r="P1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads14</v>
+        <v>Info ads14</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -9311,16 +9395,16 @@
         <v>358428.3125</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N2">
         <v>10</v>
@@ -9394,6 +9478,27 @@
       <c r="H4">
         <v>353985.59375</v>
       </c>
+      <c r="J4">
+        <v>-3.1099999999999999E-2</v>
+      </c>
+      <c r="K4">
+        <v>-3.1099999999999999E-2</v>
+      </c>
+      <c r="L4">
+        <v>-3.1099999999999999E-2</v>
+      </c>
+      <c r="M4">
+        <v>-3.1099999999999999E-2</v>
+      </c>
+      <c r="N4">
+        <v>-3.1099999999999999E-2</v>
+      </c>
+      <c r="O4">
+        <v>-3.1099999999999999E-2</v>
+      </c>
+      <c r="P4">
+        <v>-3.1099999999999999E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -9421,6 +9526,27 @@
       <c r="H5">
         <v>352015.6875</v>
       </c>
+      <c r="J5">
+        <v>-3.3491186695062E-2</v>
+      </c>
+      <c r="K5">
+        <v>-2.8937470569056899E-2</v>
+      </c>
+      <c r="L5">
+        <v>-2.8834619582376701E-2</v>
+      </c>
+      <c r="M5">
+        <v>-3.1937129083527402E-2</v>
+      </c>
+      <c r="N5">
+        <v>-2.2116003244964499E-2</v>
+      </c>
+      <c r="O5">
+        <v>-3.3063389974491202E-2</v>
+      </c>
+      <c r="P5">
+        <v>-3.4782454710978898E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -9448,6 +9574,27 @@
       <c r="H6">
         <v>349940.03125</v>
       </c>
+      <c r="J6">
+        <v>13.027526709010999</v>
+      </c>
+      <c r="K6">
+        <v>13.027526709010999</v>
+      </c>
+      <c r="L6">
+        <v>13.027526709010999</v>
+      </c>
+      <c r="M6">
+        <v>13.027526709010999</v>
+      </c>
+      <c r="N6">
+        <v>13.027526709010999</v>
+      </c>
+      <c r="O6">
+        <v>13.027526709010999</v>
+      </c>
+      <c r="P6">
+        <v>13.027526709010999</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -9474,6 +9621,27 @@
       </c>
       <c r="H7">
         <v>348472.5</v>
+      </c>
+      <c r="J7">
+        <v>13.3155158632709</v>
+      </c>
+      <c r="K7">
+        <v>12.906721752800699</v>
+      </c>
+      <c r="L7">
+        <v>12.8337732704723</v>
+      </c>
+      <c r="M7">
+        <v>13.220385981927601</v>
+      </c>
+      <c r="N7">
+        <v>12.5596205574957</v>
+      </c>
+      <c r="O7">
+        <v>13.2369318753955</v>
+      </c>
+      <c r="P7">
+        <v>13.1873353479321</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -18000,7 +18168,7 @@
   <dimension ref="A1:P302"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:P3"/>
+      <selection activeCell="J6" sqref="J6:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18031,35 +18199,35 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" t="str">
         <f>CONCATENATE($I1,B1)</f>
-        <v>T interval ads8</v>
+        <v>Info ads8</v>
       </c>
       <c r="K1" t="str">
         <f t="shared" ref="K1:P1" si="0">CONCATENATE($I1,C1)</f>
-        <v>T interval ads9</v>
+        <v>Info ads9</v>
       </c>
       <c r="L1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads10</v>
+        <v>Info ads10</v>
       </c>
       <c r="M1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads11</v>
+        <v>Info ads11</v>
       </c>
       <c r="N1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads12</v>
+        <v>Info ads12</v>
       </c>
       <c r="O1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads13</v>
+        <v>Info ads13</v>
       </c>
       <c r="P1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads14</v>
+        <v>Info ads14</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -18088,16 +18256,16 @@
         <v>698861.6875</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N2">
         <v>10</v>
@@ -18171,6 +18339,27 @@
       <c r="H4">
         <v>683682.375</v>
       </c>
+      <c r="J4">
+        <v>-0.03</v>
+      </c>
+      <c r="K4">
+        <v>-0.03</v>
+      </c>
+      <c r="L4">
+        <v>-0.03</v>
+      </c>
+      <c r="M4">
+        <v>-0.03</v>
+      </c>
+      <c r="N4">
+        <v>-0.03</v>
+      </c>
+      <c r="O4">
+        <v>-0.03</v>
+      </c>
+      <c r="P4">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -18198,6 +18387,27 @@
       <c r="H5">
         <v>677125.3125</v>
       </c>
+      <c r="J5">
+        <v>-2.7056953349269299E-2</v>
+      </c>
+      <c r="K5">
+        <v>-2.8894125422950698E-2</v>
+      </c>
+      <c r="L5">
+        <v>-3.2087233425408597E-2</v>
+      </c>
+      <c r="M5">
+        <v>-3.1962456464655897E-2</v>
+      </c>
+      <c r="N5">
+        <v>-3.3573966353071798E-2</v>
+      </c>
+      <c r="O5">
+        <v>-2.7968478697513999E-2</v>
+      </c>
+      <c r="P5">
+        <v>-2.6580186756908E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -18225,6 +18435,27 @@
       <c r="H6">
         <v>671468</v>
       </c>
+      <c r="J6">
+        <v>13.0813411748763</v>
+      </c>
+      <c r="K6">
+        <v>13.0813411748763</v>
+      </c>
+      <c r="L6">
+        <v>13.0813411748763</v>
+      </c>
+      <c r="M6">
+        <v>13.0813411748763</v>
+      </c>
+      <c r="N6">
+        <v>13.0813411748763</v>
+      </c>
+      <c r="O6">
+        <v>13.0813411748763</v>
+      </c>
+      <c r="P6">
+        <v>13.0813411748763</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -18251,6 +18482,27 @@
       </c>
       <c r="H7">
         <v>666275.1875</v>
+      </c>
+      <c r="J7">
+        <v>12.744744022193601</v>
+      </c>
+      <c r="K7">
+        <v>12.7466208466429</v>
+      </c>
+      <c r="L7">
+        <v>12.843883998981999</v>
+      </c>
+      <c r="M7">
+        <v>12.899715140729301</v>
+      </c>
+      <c r="N7">
+        <v>12.8769875796752</v>
+      </c>
+      <c r="O7">
+        <v>12.7518342749265</v>
+      </c>
+      <c r="P7">
+        <v>12.9200720402033</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -26229,7 +26481,7 @@
   <dimension ref="A1:P302"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="J6" sqref="J6:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26260,35 +26512,35 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" t="str">
         <f>CONCATENATE($I1,B1)</f>
-        <v>T interval ads8</v>
+        <v>Info ads8</v>
       </c>
       <c r="K1" t="str">
         <f t="shared" ref="K1:P1" si="0">CONCATENATE($I1,C1)</f>
-        <v>T interval ads9</v>
+        <v>Info ads9</v>
       </c>
       <c r="L1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads10</v>
+        <v>Info ads10</v>
       </c>
       <c r="M1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads11</v>
+        <v>Info ads11</v>
       </c>
       <c r="N1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads12</v>
+        <v>Info ads12</v>
       </c>
       <c r="O1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads13</v>
+        <v>Info ads13</v>
       </c>
       <c r="P1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads14</v>
+        <v>Info ads14</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -26317,16 +26569,16 @@
         <v>526212.3125</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N2">
         <v>8</v>
@@ -26400,6 +26652,27 @@
       <c r="H4">
         <v>514956.59375</v>
       </c>
+      <c r="J4">
+        <v>-2.8989999999999998E-2</v>
+      </c>
+      <c r="K4">
+        <v>-2.8989999999999998E-2</v>
+      </c>
+      <c r="L4">
+        <v>-2.8989999999999998E-2</v>
+      </c>
+      <c r="M4">
+        <v>-2.8989999999999998E-2</v>
+      </c>
+      <c r="N4">
+        <v>-2.8989999999999998E-2</v>
+      </c>
+      <c r="O4">
+        <v>-2.8989999999999998E-2</v>
+      </c>
+      <c r="P4">
+        <v>-2.8989999999999998E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -26427,6 +26700,27 @@
       <c r="H5">
         <v>510075.15625</v>
       </c>
+      <c r="J5">
+        <v>-3.2067842198399497E-2</v>
+      </c>
+      <c r="K5">
+        <v>-3.4183568906350603E-2</v>
+      </c>
+      <c r="L5">
+        <v>-3.0087273412864698E-2</v>
+      </c>
+      <c r="M5">
+        <v>-3.32938879791198E-2</v>
+      </c>
+      <c r="N5">
+        <v>-2.8352313469791598E-2</v>
+      </c>
+      <c r="O5">
+        <v>-2.6853204007083301E-2</v>
+      </c>
+      <c r="P5">
+        <v>-3.6285611360560702E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -26454,6 +26748,27 @@
       <c r="H6">
         <v>505720.84375</v>
       </c>
+      <c r="J6">
+        <v>13.074907643107</v>
+      </c>
+      <c r="K6">
+        <v>13.074907643107</v>
+      </c>
+      <c r="L6">
+        <v>13.074907643107</v>
+      </c>
+      <c r="M6">
+        <v>13.074907643107</v>
+      </c>
+      <c r="N6">
+        <v>13.074907643107</v>
+      </c>
+      <c r="O6">
+        <v>13.074907643107</v>
+      </c>
+      <c r="P6">
+        <v>13.074907643107</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -26480,6 +26795,27 @@
       </c>
       <c r="H7">
         <v>501342.75</v>
+      </c>
+      <c r="J7">
+        <v>13.2175109287548</v>
+      </c>
+      <c r="K7">
+        <v>13.484597393474701</v>
+      </c>
+      <c r="L7">
+        <v>13.113938554968</v>
+      </c>
+      <c r="M7">
+        <v>13.109861005256899</v>
+      </c>
+      <c r="N7">
+        <v>12.7814115709911</v>
+      </c>
+      <c r="O7">
+        <v>12.9698997413611</v>
+      </c>
+      <c r="P7">
+        <v>13.3679094503845</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -34680,8 +35016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B040B7BB-4268-424A-B805-C70B50D4520C}">
   <dimension ref="A1:P302"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:P3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34712,35 +35048,35 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" t="str">
         <f>CONCATENATE($I1,B1)</f>
-        <v>T interval ads8</v>
+        <v>Info ads8</v>
       </c>
       <c r="K1" t="str">
         <f t="shared" ref="K1:P1" si="0">CONCATENATE($I1,C1)</f>
-        <v>T interval ads9</v>
+        <v>Info ads9</v>
       </c>
       <c r="L1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads10</v>
+        <v>Info ads10</v>
       </c>
       <c r="M1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads11</v>
+        <v>Info ads11</v>
       </c>
       <c r="N1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads12</v>
+        <v>Info ads12</v>
       </c>
       <c r="O1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads13</v>
+        <v>Info ads13</v>
       </c>
       <c r="P1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads14</v>
+        <v>Info ads14</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -34769,7 +35105,7 @@
         <v>743854.625</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K2">
         <v>7.7</v>
@@ -34861,6 +35197,27 @@
       <c r="H4">
         <v>714369.9375</v>
       </c>
+      <c r="J4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="K4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="L4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="M4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="N4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="O4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="P4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -34888,6 +35245,27 @@
       <c r="H5">
         <v>704159.6875</v>
       </c>
+      <c r="J5">
+        <v>-2.60685988973593E-2</v>
+      </c>
+      <c r="K5">
+        <v>-2.7042566122622999E-2</v>
+      </c>
+      <c r="L5">
+        <v>-2.8935318901882098E-2</v>
+      </c>
+      <c r="M5">
+        <v>-2.7367230990193701E-2</v>
+      </c>
+      <c r="N5">
+        <v>-2.7129753705736399E-2</v>
+      </c>
+      <c r="O5">
+        <v>-3.0823274394742001E-2</v>
+      </c>
+      <c r="P5">
+        <v>-2.9304916450849001E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -34915,6 +35293,27 @@
       <c r="H6">
         <v>694380.1875</v>
       </c>
+      <c r="J6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="K6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="L6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="M6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="N6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="O6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="P6">
+        <v>12.9554015315904</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -34942,6 +35341,27 @@
       <c r="H7">
         <v>686080.3125</v>
       </c>
+      <c r="J7">
+        <v>12.6796109656678</v>
+      </c>
+      <c r="K7">
+        <v>12.8292427748611</v>
+      </c>
+      <c r="L7">
+        <v>12.914109447618999</v>
+      </c>
+      <c r="M7">
+        <v>12.815118052590901</v>
+      </c>
+      <c r="N7">
+        <v>13.094613791895201</v>
+      </c>
+      <c r="O7">
+        <v>13.188539220536301</v>
+      </c>
+      <c r="P7">
+        <v>13.196144394817001</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -42910,6 +43330,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -42917,8 +43338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB429F3-E25C-4194-A8A5-863BCBB1E227}">
   <dimension ref="A1:P302"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:P3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42949,35 +43370,35 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" t="str">
         <f>CONCATENATE($I1,B1)</f>
-        <v>T interval ads8</v>
+        <v>Info ads8</v>
       </c>
       <c r="K1" t="str">
         <f t="shared" ref="K1:P1" si="0">CONCATENATE($I1,C1)</f>
-        <v>T interval ads9</v>
+        <v>Info ads9</v>
       </c>
       <c r="L1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads10</v>
+        <v>Info ads10</v>
       </c>
       <c r="M1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads11</v>
+        <v>Info ads11</v>
       </c>
       <c r="N1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads12</v>
+        <v>Info ads12</v>
       </c>
       <c r="O1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads13</v>
+        <v>Info ads13</v>
       </c>
       <c r="P1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads14</v>
+        <v>Info ads14</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -43006,10 +43427,10 @@
         <v>607894.625</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L2">
         <v>7.7</v>
@@ -43095,6 +43516,27 @@
       <c r="H4">
         <v>585249.75</v>
       </c>
+      <c r="J4">
+        <v>-2.6800000000000001E-2</v>
+      </c>
+      <c r="K4">
+        <v>-2.6800000000000001E-2</v>
+      </c>
+      <c r="L4">
+        <v>-2.6800000000000001E-2</v>
+      </c>
+      <c r="M4">
+        <v>-2.6800000000000001E-2</v>
+      </c>
+      <c r="N4">
+        <v>-2.6800000000000001E-2</v>
+      </c>
+      <c r="O4">
+        <v>-2.6800000000000001E-2</v>
+      </c>
+      <c r="P4">
+        <v>-2.6800000000000001E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -43122,6 +43564,27 @@
       <c r="H5">
         <v>577057.625</v>
       </c>
+      <c r="J5">
+        <v>-2.6650698450835199E-2</v>
+      </c>
+      <c r="K5">
+        <v>-2.4079154201840602E-2</v>
+      </c>
+      <c r="L5">
+        <v>-2.8132867865860198E-2</v>
+      </c>
+      <c r="M5">
+        <v>-3.0497271796880901E-2</v>
+      </c>
+      <c r="N5">
+        <v>-3.1093724431564301E-2</v>
+      </c>
+      <c r="O5">
+        <v>-2.4746252188993002E-2</v>
+      </c>
+      <c r="P5">
+        <v>-2.6771193064325901E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -43149,6 +43612,27 @@
       <c r="H6">
         <v>569558.625</v>
       </c>
+      <c r="J6">
+        <v>12.775993010381899</v>
+      </c>
+      <c r="K6">
+        <v>12.775993010381899</v>
+      </c>
+      <c r="L6">
+        <v>12.775993010381899</v>
+      </c>
+      <c r="M6">
+        <v>12.775993010381899</v>
+      </c>
+      <c r="N6">
+        <v>12.775993010381899</v>
+      </c>
+      <c r="O6">
+        <v>12.775993010381899</v>
+      </c>
+      <c r="P6">
+        <v>12.775993010381899</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -43175,6 +43659,27 @@
       </c>
       <c r="H7">
         <v>563529.25</v>
+      </c>
+      <c r="J7">
+        <v>12.774505717617901</v>
+      </c>
+      <c r="K7">
+        <v>12.570160626128301</v>
+      </c>
+      <c r="L7">
+        <v>12.465593598938399</v>
+      </c>
+      <c r="M7">
+        <v>13.124876705770401</v>
+      </c>
+      <c r="N7">
+        <v>13.114565804192599</v>
+      </c>
+      <c r="O7">
+        <v>12.5723328878753</v>
+      </c>
+      <c r="P7">
+        <v>12.7274158271633</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -51312,8 +51817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865C96D1-EB65-4E12-ACB1-71187BCF71F7}">
   <dimension ref="A1:P302"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:P3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51344,35 +51849,35 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" t="str">
         <f>CONCATENATE($I1,B1)</f>
-        <v>T interval ads8</v>
+        <v>Info ads8</v>
       </c>
       <c r="K1" t="str">
         <f t="shared" ref="K1:P1" si="0">CONCATENATE($I1,C1)</f>
-        <v>T interval ads9</v>
+        <v>Info ads9</v>
       </c>
       <c r="L1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads10</v>
+        <v>Info ads10</v>
       </c>
       <c r="M1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads11</v>
+        <v>Info ads11</v>
       </c>
       <c r="N1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads12</v>
+        <v>Info ads12</v>
       </c>
       <c r="O1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads13</v>
+        <v>Info ads13</v>
       </c>
       <c r="P1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads14</v>
+        <v>Info ads14</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -51401,10 +51906,10 @@
         <v>573303.0625</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L2">
         <v>6.2</v>
@@ -51490,6 +51995,27 @@
       <c r="H4">
         <v>549822.625</v>
       </c>
+      <c r="J4">
+        <v>-2.5700000000000001E-2</v>
+      </c>
+      <c r="K4">
+        <v>-2.5700000000000001E-2</v>
+      </c>
+      <c r="L4">
+        <v>-2.5700000000000001E-2</v>
+      </c>
+      <c r="M4">
+        <v>-2.5700000000000001E-2</v>
+      </c>
+      <c r="N4">
+        <v>-2.5700000000000001E-2</v>
+      </c>
+      <c r="O4">
+        <v>-2.5700000000000001E-2</v>
+      </c>
+      <c r="P4">
+        <v>-2.5700000000000001E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -51517,6 +52043,27 @@
       <c r="H5">
         <v>541201.3125</v>
       </c>
+      <c r="J5">
+        <v>-2.3997153576695501E-2</v>
+      </c>
+      <c r="K5">
+        <v>-2.6217114962446199E-2</v>
+      </c>
+      <c r="L5">
+        <v>-2.6993031621246801E-2</v>
+      </c>
+      <c r="M5">
+        <v>-2.5142039235983901E-2</v>
+      </c>
+      <c r="N5">
+        <v>-2.3642167934092399E-2</v>
+      </c>
+      <c r="O5">
+        <v>-2.3642167934092399E-2</v>
+      </c>
+      <c r="P5">
+        <v>-2.5785464971682399E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -51544,6 +52091,27 @@
       <c r="H6">
         <v>533519.125</v>
       </c>
+      <c r="J6">
+        <v>12.614915248999599</v>
+      </c>
+      <c r="K6">
+        <v>12.614915248999599</v>
+      </c>
+      <c r="L6">
+        <v>12.614915248999599</v>
+      </c>
+      <c r="M6">
+        <v>12.614915248999599</v>
+      </c>
+      <c r="N6">
+        <v>12.614915248999599</v>
+      </c>
+      <c r="O6">
+        <v>12.614915248999599</v>
+      </c>
+      <c r="P6">
+        <v>12.614915248999599</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -51570,6 +52138,27 @@
       </c>
       <c r="H7">
         <v>526802.75</v>
+      </c>
+      <c r="J7">
+        <v>12.410931467362699</v>
+      </c>
+      <c r="K7">
+        <v>12.707510717601201</v>
+      </c>
+      <c r="L7">
+        <v>12.4902165034096</v>
+      </c>
+      <c r="M7">
+        <v>12.6114346222067</v>
+      </c>
+      <c r="N7">
+        <v>12.6624666144484</v>
+      </c>
+      <c r="O7">
+        <v>12.6624666144484</v>
+      </c>
+      <c r="P7">
+        <v>12.4844928955026</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -59859,8 +60448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E8B637-55E8-4CE3-8AA0-8B2D793EB1C2}">
   <dimension ref="A1:P302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59891,35 +60480,35 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" t="str">
         <f>CONCATENATE($I1,B1)</f>
-        <v>T interval ads8</v>
+        <v>Info ads8</v>
       </c>
       <c r="K1" t="str">
         <f t="shared" ref="K1:P1" si="0">CONCATENATE($I1,C1)</f>
-        <v>T interval ads9</v>
+        <v>Info ads9</v>
       </c>
       <c r="L1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads10</v>
+        <v>Info ads10</v>
       </c>
       <c r="M1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads11</v>
+        <v>Info ads11</v>
       </c>
       <c r="N1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads12</v>
+        <v>Info ads12</v>
       </c>
       <c r="O1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads13</v>
+        <v>Info ads13</v>
       </c>
       <c r="P1" t="str">
         <f t="shared" si="0"/>
-        <v>T interval ads14</v>
+        <v>Info ads14</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -59945,10 +60534,10 @@
         <v>752277.875</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L2">
         <v>7.7</v>
@@ -59957,7 +60546,7 @@
         <v>7.7</v>
       </c>
       <c r="N2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O2">
         <v>11.6</v>
@@ -60025,6 +60614,24 @@
       <c r="H4">
         <v>720674.4375</v>
       </c>
+      <c r="J4">
+        <v>-2.47E-2</v>
+      </c>
+      <c r="K4">
+        <v>-2.47E-2</v>
+      </c>
+      <c r="L4">
+        <v>-2.47E-2</v>
+      </c>
+      <c r="M4">
+        <v>-2.47E-2</v>
+      </c>
+      <c r="O4">
+        <v>-2.47E-2</v>
+      </c>
+      <c r="P4">
+        <v>-2.47E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -60049,6 +60656,24 @@
       <c r="H5">
         <v>709316.75</v>
       </c>
+      <c r="J5">
+        <v>-2.40500386432934E-2</v>
+      </c>
+      <c r="K5">
+        <v>-2.70333767699148E-2</v>
+      </c>
+      <c r="L5">
+        <v>-2.6586335368433599E-2</v>
+      </c>
+      <c r="M5">
+        <v>-2.6146300858692802E-2</v>
+      </c>
+      <c r="O5">
+        <v>-2.6670279047935199E-2</v>
+      </c>
+      <c r="P5">
+        <v>-2.4146404393445099E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -60073,6 +60698,24 @@
       <c r="H6">
         <v>699865.125</v>
       </c>
+      <c r="J6">
+        <v>12.5233809882664</v>
+      </c>
+      <c r="K6">
+        <v>12.5233809882664</v>
+      </c>
+      <c r="L6">
+        <v>12.5233809882664</v>
+      </c>
+      <c r="M6">
+        <v>12.5233809882664</v>
+      </c>
+      <c r="O6">
+        <v>12.5233809882664</v>
+      </c>
+      <c r="P6">
+        <v>12.5233809882664</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -60096,6 +60739,24 @@
       </c>
       <c r="H7">
         <v>691921.9375</v>
+      </c>
+      <c r="J7">
+        <v>12.2993883206356</v>
+      </c>
+      <c r="K7">
+        <v>12.7003730969542</v>
+      </c>
+      <c r="L7">
+        <v>12.341651914215699</v>
+      </c>
+      <c r="M7">
+        <v>12.6441067577263</v>
+      </c>
+      <c r="O7">
+        <v>12.7683582282472</v>
+      </c>
+      <c r="P7">
+        <v>12.5368879798111</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
